--- a/Template/Шаблон для загрузки входящих писем в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки входящих писем в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import\rx-util-importdata-net-core-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Дополнительно" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ВходящиеПисьма!$A$1:$S$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ВходящиеПисьма!$A$1:$Q$21</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Содержание</t>
   </si>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -715,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -736,14 +736,13 @@
     <col min="10" max="10" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="13.42578125" style="9" customWidth="1"/>
-    <col min="15" max="16" width="13.42578125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="5"/>
+    <col min="15" max="15" width="13.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
@@ -765,7 +764,7 @@
       <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -789,23 +788,15 @@
       <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
+      <c r="P1" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="4"/>
       <c r="C2" s="17"/>
@@ -821,12 +812,10 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="4"/>
       <c r="C3" s="17"/>
@@ -842,12 +831,10 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="4"/>
       <c r="C4" s="17"/>
@@ -863,12 +850,10 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="4"/>
       <c r="C5" s="17"/>
@@ -884,12 +869,10 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="4"/>
       <c r="C6" s="17"/>
@@ -905,12 +888,10 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="4"/>
       <c r="C7" s="17"/>
@@ -926,12 +907,10 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-    </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="4"/>
       <c r="C8" s="17"/>
@@ -947,12 +926,10 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="4"/>
       <c r="C9" s="17"/>
@@ -968,12 +945,10 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="4"/>
       <c r="C10" s="17"/>
@@ -989,12 +964,10 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="4"/>
       <c r="C11" s="17"/>
@@ -1010,12 +983,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
@@ -1031,12 +1002,10 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="4"/>
       <c r="C13" s="17"/>
@@ -1052,12 +1021,10 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="4"/>
       <c r="C14" s="17"/>
@@ -1073,12 +1040,10 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="4"/>
       <c r="C15" s="17"/>
@@ -1094,12 +1059,10 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
@@ -1115,12 +1078,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
@@ -1136,12 +1097,10 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17"/>
@@ -1157,12 +1116,10 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="4"/>
       <c r="C19" s="17"/>
@@ -1178,12 +1135,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-    </row>
-    <row r="20" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="4"/>
       <c r="C20" s="17"/>
@@ -1199,17 +1154,15 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:S21"/>
+  <autoFilter ref="A1:Q21"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
